--- a/tests/outputs/timedelta1.xlsx
+++ b/tests/outputs/timedelta1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,13 +19,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss\ AM/PM" numFmtId="165"/>
-    <numFmt formatCode="[h]:mm:ss;\-[h]:mm:ss" numFmtId="166"/>
-    <numFmt formatCode="[m]:ss" numFmtId="167"/>
-    <numFmt formatCode="[s]" numFmtId="168"/>
-    <numFmt formatCode="[h]\hm\ms\s" numFmtId="169"/>
-    <numFmt formatCode="[m]" numFmtId="170"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm:ss;\-[h]:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="[m]:ss"/>
+    <numFmt numFmtId="168" formatCode="[s]"/>
+    <numFmt numFmtId="169" formatCode="[h]\hm\ms\s"/>
+    <numFmt numFmtId="170" formatCode="[m]"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -82,47 +82,115 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,11 +491,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="22.28515625"/>
-    <col customWidth="1" max="2" min="2" width="22.140625"/>
+    <col width="22.28515625" customWidth="1" min="1" max="1"/>
+    <col width="22.140625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" thickBot="1" thickTop="1">
+    <row r="1" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Test timedelta</t>
@@ -439,7 +507,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2" thickBot="1" thickTop="1">
+    <row r="2" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A2" s="2" t="n">
         <v>44044.625</v>
       </c>
@@ -449,7 +517,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" thickBot="1" thickTop="1">
+    <row r="3" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A3" s="2" t="n">
         <v>44044.54309027778</v>
       </c>
@@ -459,7 +527,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="4" thickBot="1" thickTop="1">
+    <row r="4" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A4" s="4" t="n">
         <v>0.08190972222222222</v>
       </c>
@@ -469,7 +537,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="5" thickBot="1" thickTop="1">
+    <row r="5" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A5" s="5" t="n">
         <v>0.08190972222222222</v>
       </c>
@@ -479,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="6" thickBot="1" thickTop="1">
+    <row r="6" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A6" s="6" t="n">
         <v>0.0819097222192795</v>
       </c>
@@ -489,7 +557,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="7" thickBot="1" thickTop="1">
+    <row r="7" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A7" s="7" t="n">
         <v>0.08190972222222222</v>
       </c>
@@ -499,7 +567,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="8" thickBot="1" thickTop="1">
+    <row r="8" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
       <c r="A8" s="8" t="n">
         <v>0.0819097222192795</v>
       </c>
@@ -509,9 +577,9 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="9" thickTop="1"/>
+    <row r="9" ht="15.75" customHeight="1" thickTop="1"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -529,7 +597,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -547,6 +615,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>